--- a/testCases/模板.xlsx
+++ b/testCases/模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>am_host</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>data.password=${gen_md5(Qsq522439539)}</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -165,16 +161,19 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>cm_host</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>headers.token=$token</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>0 = code</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.templet_id=$templet_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>templet_id=data.0.templet_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>data.username=$username;data.password=$password;data.domain=$am_host</t>
   </si>
 </sst>
 </file>
@@ -626,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -636,7 +635,7 @@
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.4140625" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="55.1640625" customWidth="1"/>
     <col min="7" max="7" width="29.25" customWidth="1"/>
     <col min="8" max="8" width="48.1640625" customWidth="1"/>
   </cols>
@@ -646,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -857,22 +856,22 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="I14" s="9" t="s">
         <v>22</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -881,31 +880,31 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="8">
+      <c r="A16" s="9">
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="H16" s="9" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>9</v>
@@ -918,45 +917,49 @@
       <c r="B17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13" t="s">
-        <v>29</v>
+      <c r="C17" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="I17" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="9">
+    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8">
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>39</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="F18" s="9"/>
+        <v>25</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>35</v>
+      </c>
       <c r="G18" s="9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">

--- a/testCases/模板.xlsx
+++ b/testCases/模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
   <si>
     <t>名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -91,10 +91,6 @@
   </si>
   <si>
     <t>0 = code;成功 = msg;1 in data.org_id</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>Yes</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -128,9 +124,6 @@
   <si>
     <t>获取模板previewList</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>/apicm/Page/Campaign/Templet/getTempletPreviewList</t>
@@ -625,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -645,7 +638,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -856,22 +849,22 @@
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="8"/>
       <c r="B15" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="9"/>
@@ -880,7 +873,7 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -888,23 +881,23 @@
         <v>1</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>24</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="9" t="s">
         <v>39</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="I16" s="9" t="s">
         <v>9</v>
@@ -915,25 +908,25 @@
         <v>2</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="9" t="s">
         <v>32</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>34</v>
       </c>
       <c r="I17" s="9" t="s">
         <v>9</v>
@@ -944,22 +937,22 @@
         <v>3</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D18" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="F18" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18" s="9"/>
       <c r="I18" s="9" t="s">

--- a/testCases/模板.xlsx
+++ b/testCases/模板.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>名称</t>
     <phoneticPr fontId="6" type="noConversion"/>
@@ -28,25 +28,10 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>前置条件</t>
-  </si>
-  <si>
-    <t>操作方式：</t>
-  </si>
-  <si>
-    <t>接口调用</t>
-  </si>
-  <si>
     <t>/api/User/login</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>后置条件</t>
-  </si>
-  <si>
-    <t>数据库操作</t>
-  </si>
-  <si>
     <t>Active</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -87,10 +72,6 @@
   </si>
   <si>
     <t>am_host</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>0 = code;成功 = msg;1 in data.org_id</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -130,10 +111,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>token=data.token</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>preview_id=data.1.card_list.0.id</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -166,7 +143,40 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>setupclass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>teardownclass</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>data.username=$username;data.password=$password;data.domain=$am_host</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 = code;成功 = msg;1 in data.org_id</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>token=data.token</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换组织</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/Power/Power/User/changeOrg</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>json.id=1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -290,7 +300,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -301,12 +311,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -330,9 +334,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -616,15 +617,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" customWidth="1"/>
+    <col min="1" max="1" width="12.4140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.25" customWidth="1"/>
     <col min="3" max="3" width="46.33203125" customWidth="1"/>
     <col min="5" max="5" width="22.4140625" customWidth="1"/>
@@ -638,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -664,15 +665,13 @@
       <c r="I2" s="2"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -681,12 +680,9 @@
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
-      <c r="B4" s="4" t="str">
-        <f>IF(C3="接口调用","接口名称：",IF(C3="数据库操作","数据库：",""))</f>
-        <v>接口名称：</v>
-      </c>
-      <c r="C4" s="5"/>
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
@@ -694,285 +690,223 @@
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
-      <c r="B5" s="4" t="str">
-        <f>IF(C3="接口调用","请求数据：",IF(C3="数据库操作","库名称：",""))</f>
-        <v>请求数据：</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+    <row r="5" spans="1:9" ht="15" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
-      <c r="B6" s="4" t="str">
-        <f>IF(C3="接口调用","返回数据：",IF(C3="数据库操作","SQL：",""))</f>
-        <v>返回数据：</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="A6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="A7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>1</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
+        <v>2</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>3</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
-      <c r="B8" s="4" t="str">
-        <f>IF(C7="接口调用","接口名称：",IF(C7="数据库操作","数据库：",""))</f>
-        <v>数据库：</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
-      <c r="B9" s="4" t="str">
-        <f>IF(C7="接口调用","请求数据：",IF(C7="数据库操作","库名称：",""))</f>
-        <v>库名称：</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
-      <c r="B10" s="4" t="str">
-        <f>IF(C7="接口调用","返回数据：",IF(C7="数据库操作","SQL：",""))</f>
-        <v>SQL：</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="6"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>17</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="9">
-        <v>1</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="8">
-        <v>2</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8">
-        <v>3</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="G18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 C7">
-      <formula1>"接口调用,数据库操作"</formula1>
-    </dataValidation>
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
       <formula1>"1,2,3,4"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11 I14:I18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3 I6:I13">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
